--- a/監考時間表.xlsx
+++ b/監考時間表.xlsx
@@ -5095,7 +5095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ167"/>
+  <dimension ref="A1:AQ168"/>
   <sheetViews>
     <sheetView zoomScale="70" workbookViewId="0">
       <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
@@ -5259,7 +5259,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="12" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="E2" s="12" t="n">
         <v>0</v>
@@ -5267,8 +5267,9 @@
       <c r="F2" s="12" t="n">
         <v>455</v>
       </c>
-      <c r="G2" s="12" t="n">
-        <v>478</v>
+      <c r="G2" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C2</f>
+        <v/>
       </c>
       <c r="H2" s="13">
         <f>F2-G2</f>
@@ -5735,7 +5736,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="E7" s="12" t="n">
         <v>345</v>
@@ -5743,8 +5744,9 @@
       <c r="F7" s="12" t="n">
         <v>485</v>
       </c>
-      <c r="G7" s="12" t="n">
-        <v>478</v>
+      <c r="G7" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C7</f>
+        <v/>
       </c>
       <c r="H7" s="13">
         <f>F7-G7</f>
@@ -6081,7 +6083,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="12" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="E11" s="12" t="n">
         <v>365</v>
@@ -6089,8 +6091,9 @@
       <c r="F11" s="12" t="n">
         <v>470</v>
       </c>
-      <c r="G11" s="12" t="n">
-        <v>478</v>
+      <c r="G11" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C11</f>
+        <v/>
       </c>
       <c r="H11" s="13">
         <f>F11-G11</f>
@@ -6361,7 +6364,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="12" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E14" s="12" t="n">
         <v>435</v>
@@ -6369,8 +6372,9 @@
       <c r="F14" s="12" t="n">
         <v>470</v>
       </c>
-      <c r="G14" s="12" t="n">
-        <v>478</v>
+      <c r="G14" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C14</f>
+        <v/>
       </c>
       <c r="H14" s="13">
         <f>F14-G14</f>
@@ -6580,8 +6584,9 @@
       <c r="F16" s="12" t="n">
         <v>475</v>
       </c>
-      <c r="G16" s="12" t="n">
-        <v>478</v>
+      <c r="G16" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C16</f>
+        <v/>
       </c>
       <c r="H16" s="13">
         <f>F16-G16</f>
@@ -6776,8 +6781,9 @@
       <c r="F18" s="12" t="n">
         <v>475</v>
       </c>
-      <c r="G18" s="12" t="n">
-        <v>478</v>
+      <c r="G18" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C18</f>
+        <v/>
       </c>
       <c r="H18" s="13">
         <f>F18-G18</f>
@@ -6961,7 +6967,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="12" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="E20" s="12" t="n">
         <v>120</v>
@@ -6969,8 +6975,9 @@
       <c r="F20" s="12" t="n">
         <v>470</v>
       </c>
-      <c r="G20" s="12" t="n">
-        <v>478</v>
+      <c r="G20" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C20</f>
+        <v/>
       </c>
       <c r="H20" s="13">
         <f>F20-G20</f>
@@ -7378,8 +7385,9 @@
       <c r="F24" s="12" t="n">
         <v>475</v>
       </c>
-      <c r="G24" s="12" t="n">
-        <v>478</v>
+      <c r="G24" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C24</f>
+        <v/>
       </c>
       <c r="H24" s="13">
         <f>F24-G24</f>
@@ -7575,8 +7583,9 @@
       <c r="F26" s="10" t="n">
         <v>135</v>
       </c>
-      <c r="G26" s="10" t="n">
-        <v>120</v>
+      <c r="G26" s="10">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C26</f>
+        <v/>
       </c>
       <c r="H26" s="11">
         <f>F26-G26</f>
@@ -7647,7 +7656,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="12" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E27" s="12" t="n">
         <v>445</v>
@@ -7655,8 +7664,9 @@
       <c r="F27" s="12" t="n">
         <v>480</v>
       </c>
-      <c r="G27" s="12" t="n">
-        <v>478</v>
+      <c r="G27" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C27</f>
+        <v/>
       </c>
       <c r="H27" s="13">
         <f>F27-G27</f>
@@ -7905,7 +7915,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="12" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="E29" s="12" t="n">
         <v>120</v>
@@ -7913,8 +7923,9 @@
       <c r="F29" s="12" t="n">
         <v>470</v>
       </c>
-      <c r="G29" s="12" t="n">
-        <v>478</v>
+      <c r="G29" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C29</f>
+        <v/>
       </c>
       <c r="H29" s="13">
         <f>F29-G29</f>
@@ -8314,7 +8325,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="12" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="E33" s="12" t="n">
         <v>345</v>
@@ -8322,8 +8333,9 @@
       <c r="F33" s="12" t="n">
         <v>485</v>
       </c>
-      <c r="G33" s="12" t="n">
-        <v>478</v>
+      <c r="G33" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C33</f>
+        <v/>
       </c>
       <c r="H33" s="13">
         <f>F33-G33</f>
@@ -8669,8 +8681,9 @@
       <c r="F36" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="G36" s="10" t="n">
-        <v>0</v>
+      <c r="G36" s="10">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C36</f>
+        <v/>
       </c>
       <c r="H36" s="11">
         <f>F36-G36</f>
@@ -8727,7 +8740,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="12" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="E37" s="12" t="n">
         <v>330</v>
@@ -8735,8 +8748,9 @@
       <c r="F37" s="12" t="n">
         <v>470</v>
       </c>
-      <c r="G37" s="12" t="n">
-        <v>478</v>
+      <c r="G37" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C37</f>
+        <v/>
       </c>
       <c r="H37" s="13">
         <f>F37-G37</f>
@@ -9028,7 +9042,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="12" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="E40" s="12" t="n">
         <v>360</v>
@@ -9036,8 +9050,9 @@
       <c r="F40" s="12" t="n">
         <v>500</v>
       </c>
-      <c r="G40" s="12" t="n">
-        <v>478</v>
+      <c r="G40" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C40</f>
+        <v/>
       </c>
       <c r="H40" s="13">
         <f>F40-G40</f>
@@ -9336,8 +9351,9 @@
       <c r="F43" s="10" t="n">
         <v>240</v>
       </c>
-      <c r="G43" s="10" t="n">
-        <v>239</v>
+      <c r="G43" s="10">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C43</f>
+        <v/>
       </c>
       <c r="H43" s="11">
         <f>F43-G43</f>
@@ -9422,7 +9438,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="12" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E44" s="12" t="n">
         <v>420</v>
@@ -9430,8 +9446,9 @@
       <c r="F44" s="12" t="n">
         <v>490</v>
       </c>
-      <c r="G44" s="12" t="n">
-        <v>478</v>
+      <c r="G44" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C44</f>
+        <v/>
       </c>
       <c r="H44" s="13">
         <f>F44-G44</f>
@@ -9653,7 +9670,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="12" t="n">
-        <v>0</v>
+        <v>385</v>
       </c>
       <c r="E46" s="12" t="n">
         <v>90</v>
@@ -9661,8 +9678,9 @@
       <c r="F46" s="12" t="n">
         <v>475</v>
       </c>
-      <c r="G46" s="12" t="n">
-        <v>478</v>
+      <c r="G46" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C46</f>
+        <v/>
       </c>
       <c r="H46" s="13">
         <f>F46-G46</f>
@@ -10077,7 +10095,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="12" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="E50" s="12" t="n">
         <v>135</v>
@@ -10085,8 +10103,9 @@
       <c r="F50" s="12" t="n">
         <v>485</v>
       </c>
-      <c r="G50" s="12" t="n">
-        <v>478</v>
+      <c r="G50" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C50</f>
+        <v/>
       </c>
       <c r="H50" s="13">
         <f>F50-G50</f>
@@ -10496,7 +10515,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="12" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="E54" s="12" t="n">
         <v>270</v>
@@ -10504,8 +10523,9 @@
       <c r="F54" s="12" t="n">
         <v>480</v>
       </c>
-      <c r="G54" s="12" t="n">
-        <v>478</v>
+      <c r="G54" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C54</f>
+        <v/>
       </c>
       <c r="H54" s="13">
         <f>F54-G54</f>
@@ -10814,7 +10834,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="12" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E57" s="12" t="n">
         <v>435</v>
@@ -10822,8 +10842,9 @@
       <c r="F57" s="12" t="n">
         <v>470</v>
       </c>
-      <c r="G57" s="12" t="n">
-        <v>478</v>
+      <c r="G57" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C57</f>
+        <v/>
       </c>
       <c r="H57" s="13">
         <f>F57-G57</f>
@@ -11031,7 +11052,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="12" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="E59" s="12" t="n">
         <v>270</v>
@@ -11039,8 +11060,9 @@
       <c r="F59" s="12" t="n">
         <v>480</v>
       </c>
-      <c r="G59" s="12" t="n">
-        <v>478</v>
+      <c r="G59" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C59</f>
+        <v/>
       </c>
       <c r="H59" s="13">
         <f>F59-G59</f>
@@ -11486,7 +11508,7 @@
         <v>1</v>
       </c>
       <c r="D64" s="12" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="E64" s="12" t="n">
         <v>330</v>
@@ -11494,8 +11516,9 @@
       <c r="F64" s="12" t="n">
         <v>470</v>
       </c>
-      <c r="G64" s="12" t="n">
-        <v>478</v>
+      <c r="G64" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C64</f>
+        <v/>
       </c>
       <c r="H64" s="13">
         <f>F64-G64</f>
@@ -11832,7 +11855,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="12" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="E68" s="12" t="n">
         <v>365</v>
@@ -11840,8 +11863,9 @@
       <c r="F68" s="12" t="n">
         <v>470</v>
       </c>
-      <c r="G68" s="12" t="n">
-        <v>478</v>
+      <c r="G68" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C68</f>
+        <v/>
       </c>
       <c r="H68" s="13">
         <f>F68-G68</f>
@@ -12072,7 +12096,7 @@
         <v>1</v>
       </c>
       <c r="D70" s="12" t="n">
-        <v>0</v>
+        <v>385</v>
       </c>
       <c r="E70" s="12" t="n">
         <v>240</v>
@@ -12080,8 +12104,9 @@
       <c r="F70" s="12" t="n">
         <v>625</v>
       </c>
-      <c r="G70" s="12" t="n">
-        <v>478</v>
+      <c r="G70" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C70</f>
+        <v/>
       </c>
       <c r="H70" s="13">
         <f>F70-G70</f>
@@ -12627,8 +12652,9 @@
       <c r="F76" s="10" t="n">
         <v>470</v>
       </c>
-      <c r="G76" s="10" t="n">
-        <v>478</v>
+      <c r="G76" s="10">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C76</f>
+        <v/>
       </c>
       <c r="H76" s="11">
         <f>F76-G76</f>
@@ -12778,8 +12804,9 @@
       <c r="F77" s="12" t="n">
         <v>475</v>
       </c>
-      <c r="G77" s="12" t="n">
-        <v>478</v>
+      <c r="G77" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C77</f>
+        <v/>
       </c>
       <c r="H77" s="13">
         <f>F77-G77</f>
@@ -12963,7 +12990,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="12" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="E79" s="12" t="n">
         <v>365</v>
@@ -12971,8 +12998,9 @@
       <c r="F79" s="12" t="n">
         <v>470</v>
       </c>
-      <c r="G79" s="12" t="n">
-        <v>478</v>
+      <c r="G79" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C79</f>
+        <v/>
       </c>
       <c r="H79" s="13">
         <f>F79-G79</f>
@@ -13249,7 +13277,7 @@
         <v>1</v>
       </c>
       <c r="D82" s="12" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="E82" s="12" t="n">
         <v>365</v>
@@ -13257,8 +13285,9 @@
       <c r="F82" s="12" t="n">
         <v>470</v>
       </c>
-      <c r="G82" s="12" t="n">
-        <v>478</v>
+      <c r="G82" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C82</f>
+        <v/>
       </c>
       <c r="H82" s="13">
         <f>F82-G82</f>
@@ -13531,7 +13560,7 @@
         <v>1</v>
       </c>
       <c r="D85" s="12" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="E85" s="12" t="n">
         <v>120</v>
@@ -13539,8 +13568,9 @@
       <c r="F85" s="12" t="n">
         <v>470</v>
       </c>
-      <c r="G85" s="12" t="n">
-        <v>478</v>
+      <c r="G85" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C85</f>
+        <v/>
       </c>
       <c r="H85" s="13">
         <f>F85-G85</f>
@@ -13981,7 +14011,7 @@
         <v>1</v>
       </c>
       <c r="D90" s="12" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="E90" s="12" t="n">
         <v>135</v>
@@ -13989,8 +14019,9 @@
       <c r="F90" s="12" t="n">
         <v>485</v>
       </c>
-      <c r="G90" s="12" t="n">
-        <v>478</v>
+      <c r="G90" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C90</f>
+        <v/>
       </c>
       <c r="H90" s="13">
         <f>F90-G90</f>
@@ -14412,8 +14443,9 @@
       <c r="F94" s="12" t="n">
         <v>480</v>
       </c>
-      <c r="G94" s="12" t="n">
-        <v>478</v>
+      <c r="G94" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C94</f>
+        <v/>
       </c>
       <c r="H94" s="13">
         <f>F94-G94</f>
@@ -14597,7 +14629,7 @@
         <v>1</v>
       </c>
       <c r="D96" s="12" t="n">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="E96" s="12" t="n">
         <v>240</v>
@@ -14605,8 +14637,9 @@
       <c r="F96" s="12" t="n">
         <v>485</v>
       </c>
-      <c r="G96" s="12" t="n">
-        <v>478</v>
+      <c r="G96" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C96</f>
+        <v/>
       </c>
       <c r="H96" s="13">
         <f>F96-G96</f>
@@ -14933,7 +14966,7 @@
         <v>0.5</v>
       </c>
       <c r="D99" s="12" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="E99" s="12" t="n">
         <v>45</v>
@@ -14941,8 +14974,9 @@
       <c r="F99" s="12" t="n">
         <v>255</v>
       </c>
-      <c r="G99" s="12" t="n">
-        <v>239</v>
+      <c r="G99" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C99</f>
+        <v/>
       </c>
       <c r="H99" s="13">
         <f>F99-G99</f>
@@ -15211,7 +15245,7 @@
         <v>1</v>
       </c>
       <c r="D102" s="12" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="E102" s="12" t="n">
         <v>330</v>
@@ -15219,8 +15253,9 @@
       <c r="F102" s="12" t="n">
         <v>470</v>
       </c>
-      <c r="G102" s="12" t="n">
-        <v>478</v>
+      <c r="G102" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C102</f>
+        <v/>
       </c>
       <c r="H102" s="13">
         <f>F102-G102</f>
@@ -15511,7 +15546,7 @@
         <v>1</v>
       </c>
       <c r="D105" s="12" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="E105" s="12" t="n">
         <v>365</v>
@@ -15519,8 +15554,9 @@
       <c r="F105" s="12" t="n">
         <v>470</v>
       </c>
-      <c r="G105" s="12" t="n">
-        <v>478</v>
+      <c r="G105" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C105</f>
+        <v/>
       </c>
       <c r="H105" s="13">
         <f>F105-G105</f>
@@ -15802,8 +15838,9 @@
       <c r="F108" s="12" t="n">
         <v>480</v>
       </c>
-      <c r="G108" s="12" t="n">
-        <v>478</v>
+      <c r="G108" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C108</f>
+        <v/>
       </c>
       <c r="H108" s="13">
         <f>F108-G108</f>
@@ -15999,8 +16036,9 @@
       <c r="F110" s="12" t="n">
         <v>495</v>
       </c>
-      <c r="G110" s="12" t="n">
-        <v>478</v>
+      <c r="G110" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C110</f>
+        <v/>
       </c>
       <c r="H110" s="13">
         <f>F110-G110</f>
@@ -16205,8 +16243,9 @@
       <c r="F112" s="12" t="n">
         <v>495</v>
       </c>
-      <c r="G112" s="12" t="n">
-        <v>478</v>
+      <c r="G112" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C112</f>
+        <v/>
       </c>
       <c r="H112" s="13">
         <f>F112-G112</f>
@@ -16412,8 +16451,9 @@
       <c r="F114" s="12" t="n">
         <v>495</v>
       </c>
-      <c r="G114" s="12" t="n">
-        <v>478</v>
+      <c r="G114" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C114</f>
+        <v/>
       </c>
       <c r="H114" s="13">
         <f>F114-G114</f>
@@ -16624,8 +16664,9 @@
       <c r="F116" s="12" t="n">
         <v>465</v>
       </c>
-      <c r="G116" s="12" t="n">
-        <v>478</v>
+      <c r="G116" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C116</f>
+        <v/>
       </c>
       <c r="H116" s="13">
         <f>F116-G116</f>
@@ -16811,7 +16852,7 @@
         <v>1</v>
       </c>
       <c r="D118" s="12" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E118" s="12" t="n">
         <v>435</v>
@@ -16819,8 +16860,9 @@
       <c r="F118" s="12" t="n">
         <v>470</v>
       </c>
-      <c r="G118" s="12" t="n">
-        <v>478</v>
+      <c r="G118" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C118</f>
+        <v/>
       </c>
       <c r="H118" s="13">
         <f>F118-G118</f>
@@ -17031,8 +17073,9 @@
       <c r="F120" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="G120" s="10" t="n">
-        <v>0</v>
+      <c r="G120" s="10">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C120</f>
+        <v/>
       </c>
       <c r="H120" s="11">
         <f>F120-G120</f>
@@ -17093,8 +17136,9 @@
       <c r="F121" s="10" t="n">
         <v>135</v>
       </c>
-      <c r="G121" s="10" t="n">
-        <v>120</v>
+      <c r="G121" s="10">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C121</f>
+        <v/>
       </c>
       <c r="H121" s="11">
         <f>F121-G121</f>
@@ -17169,8 +17213,9 @@
       <c r="F122" s="10" t="n">
         <v>135</v>
       </c>
-      <c r="G122" s="10" t="n">
-        <v>120</v>
+      <c r="G122" s="10">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C122</f>
+        <v/>
       </c>
       <c r="H122" s="11">
         <f>F122-G122</f>
@@ -17249,8 +17294,9 @@
       <c r="F123" s="12" t="n">
         <v>465</v>
       </c>
-      <c r="G123" s="12" t="n">
-        <v>478</v>
+      <c r="G123" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C123</f>
+        <v/>
       </c>
       <c r="H123" s="13">
         <f>F123-G123</f>
@@ -17441,7 +17487,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="12" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="E125" s="12" t="n">
         <v>195</v>
@@ -17449,8 +17495,9 @@
       <c r="F125" s="12" t="n">
         <v>475</v>
       </c>
-      <c r="G125" s="12" t="n">
-        <v>478</v>
+      <c r="G125" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C125</f>
+        <v/>
       </c>
       <c r="H125" s="13">
         <f>F125-G125</f>
@@ -17928,8 +17975,9 @@
       <c r="F130" s="12" t="n">
         <v>465</v>
       </c>
-      <c r="G130" s="12" t="n">
-        <v>478</v>
+      <c r="G130" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C130</f>
+        <v/>
       </c>
       <c r="H130" s="13">
         <f>F130-G130</f>
@@ -18124,8 +18172,9 @@
       <c r="F132" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="G132" s="10" t="n">
-        <v>0</v>
+      <c r="G132" s="10">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C132</f>
+        <v/>
       </c>
       <c r="H132" s="11">
         <f>F132-G132</f>
@@ -18182,7 +18231,7 @@
         <v>1</v>
       </c>
       <c r="D133" s="12" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E133" s="12" t="n">
         <v>415</v>
@@ -18190,8 +18239,9 @@
       <c r="F133" s="12" t="n">
         <v>485</v>
       </c>
-      <c r="G133" s="12" t="n">
-        <v>478</v>
+      <c r="G133" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C133</f>
+        <v/>
       </c>
       <c r="H133" s="13">
         <f>F133-G133</f>
@@ -18412,7 +18462,7 @@
         <v>1</v>
       </c>
       <c r="D135" s="12" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="E135" s="12" t="n">
         <v>295</v>
@@ -18420,8 +18470,9 @@
       <c r="F135" s="12" t="n">
         <v>470</v>
       </c>
-      <c r="G135" s="12" t="n">
-        <v>478</v>
+      <c r="G135" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C135</f>
+        <v/>
       </c>
       <c r="H135" s="13">
         <f>F135-G135</f>
@@ -18715,7 +18766,7 @@
         <v>1</v>
       </c>
       <c r="D138" s="12" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="E138" s="12" t="n">
         <v>290</v>
@@ -18723,8 +18774,9 @@
       <c r="F138" s="12" t="n">
         <v>465</v>
       </c>
-      <c r="G138" s="12" t="n">
-        <v>478</v>
+      <c r="G138" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C138</f>
+        <v/>
       </c>
       <c r="H138" s="13">
         <f>F138-G138</f>
@@ -19066,7 +19118,7 @@
         <v>1</v>
       </c>
       <c r="D142" s="12" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="E142" s="12" t="n">
         <v>365</v>
@@ -19074,8 +19126,9 @@
       <c r="F142" s="12" t="n">
         <v>470</v>
       </c>
-      <c r="G142" s="12" t="n">
-        <v>478</v>
+      <c r="G142" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C142</f>
+        <v/>
       </c>
       <c r="H142" s="13">
         <f>F142-G142</f>
@@ -19392,7 +19445,7 @@
         <v>1</v>
       </c>
       <c r="D145" s="12" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="E145" s="12" t="n">
         <v>215</v>
@@ -19400,8 +19453,9 @@
       <c r="F145" s="12" t="n">
         <v>495</v>
       </c>
-      <c r="G145" s="12" t="n">
-        <v>478</v>
+      <c r="G145" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C145</f>
+        <v/>
       </c>
       <c r="H145" s="13">
         <f>F145-G145</f>
@@ -19803,8 +19857,9 @@
       <c r="F149" s="12" t="n">
         <v>465</v>
       </c>
-      <c r="G149" s="12" t="n">
-        <v>478</v>
+      <c r="G149" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C149</f>
+        <v/>
       </c>
       <c r="H149" s="13">
         <f>F149-G149</f>
@@ -19995,7 +20050,7 @@
         <v>1</v>
       </c>
       <c r="D151" s="12" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E151" s="12" t="n">
         <v>420</v>
@@ -20003,8 +20058,9 @@
       <c r="F151" s="12" t="n">
         <v>490</v>
       </c>
-      <c r="G151" s="12" t="n">
-        <v>478</v>
+      <c r="G151" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C151</f>
+        <v/>
       </c>
       <c r="H151" s="13">
         <f>F151-G151</f>
@@ -20271,7 +20327,7 @@
         <v>1</v>
       </c>
       <c r="D154" s="12" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="E154" s="12" t="n">
         <v>165</v>
@@ -20279,8 +20335,9 @@
       <c r="F154" s="12" t="n">
         <v>480</v>
       </c>
-      <c r="G154" s="12" t="n">
-        <v>478</v>
+      <c r="G154" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C154</f>
+        <v/>
       </c>
       <c r="H154" s="13">
         <f>F154-G154</f>
@@ -20678,7 +20735,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="12" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="E158" s="12" t="n">
         <v>330</v>
@@ -20686,8 +20743,9 @@
       <c r="F158" s="12" t="n">
         <v>470</v>
       </c>
-      <c r="G158" s="12" t="n">
-        <v>478</v>
+      <c r="G158" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C158</f>
+        <v/>
       </c>
       <c r="H158" s="13">
         <f>F158-G158</f>
@@ -20982,8 +21040,9 @@
       <c r="F161" s="10" t="n">
         <v>255</v>
       </c>
-      <c r="G161" s="10" t="n">
-        <v>0</v>
+      <c r="G161" s="10">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C161</f>
+        <v/>
       </c>
       <c r="H161" s="11">
         <f>F161-G161</f>
@@ -21087,8 +21146,9 @@
       <c r="F162" s="10" t="n">
         <v>255</v>
       </c>
-      <c r="G162" s="10" t="n">
-        <v>0</v>
+      <c r="G162" s="10">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C162</f>
+        <v/>
       </c>
       <c r="H162" s="11">
         <f>F162-G162</f>
@@ -21193,8 +21253,9 @@
       <c r="F163" s="10" t="n">
         <v>315</v>
       </c>
-      <c r="G163" s="10" t="n">
-        <v>0</v>
+      <c r="G163" s="10">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C163</f>
+        <v/>
       </c>
       <c r="H163" s="11">
         <f>F163-G163</f>
@@ -21298,8 +21359,9 @@
       <c r="F164" s="12" t="n">
         <v>385</v>
       </c>
-      <c r="G164" s="12" t="n">
-        <v>0</v>
+      <c r="G164" s="12">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C164</f>
+        <v/>
       </c>
       <c r="H164" s="13">
         <f>F164-G164</f>
@@ -21462,8 +21524,9 @@
       <c r="F166" s="10" t="n">
         <v>370</v>
       </c>
-      <c r="G166" s="10" t="n">
-        <v>359</v>
+      <c r="G166" s="10">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C166</f>
+        <v/>
       </c>
       <c r="H166" s="11">
         <f>F166-G166</f>
@@ -21582,8 +21645,9 @@
       <c r="F167" s="10" t="n">
         <v>345</v>
       </c>
-      <c r="G167" s="10" t="n">
-        <v>359</v>
+      <c r="G167" s="10">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C167</f>
+        <v/>
       </c>
       <c r="H167" s="11">
         <f>F167-G167</f>
@@ -21666,6 +21730,12 @@
       </c>
       <c r="AQ167" s="11" t="n">
         <v>135</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="G168">
+        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C168</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/監考時間表.xlsx
+++ b/監考時間表.xlsx
@@ -5268,7 +5268,7 @@
         <v>455</v>
       </c>
       <c r="G2" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C2</f>
+        <f>G168*C2</f>
         <v/>
       </c>
       <c r="H2" s="13">
@@ -5745,7 +5745,7 @@
         <v>485</v>
       </c>
       <c r="G7" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C7</f>
+        <f>G168*C7</f>
         <v/>
       </c>
       <c r="H7" s="13">
@@ -6092,7 +6092,7 @@
         <v>470</v>
       </c>
       <c r="G11" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C11</f>
+        <f>G168*C11</f>
         <v/>
       </c>
       <c r="H11" s="13">
@@ -6373,7 +6373,7 @@
         <v>470</v>
       </c>
       <c r="G14" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C14</f>
+        <f>G168*C14</f>
         <v/>
       </c>
       <c r="H14" s="13">
@@ -6585,7 +6585,7 @@
         <v>475</v>
       </c>
       <c r="G16" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C16</f>
+        <f>G168*C16</f>
         <v/>
       </c>
       <c r="H16" s="13">
@@ -6782,7 +6782,7 @@
         <v>475</v>
       </c>
       <c r="G18" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C18</f>
+        <f>G168*C18</f>
         <v/>
       </c>
       <c r="H18" s="13">
@@ -6976,7 +6976,7 @@
         <v>470</v>
       </c>
       <c r="G20" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C20</f>
+        <f>G168*C20</f>
         <v/>
       </c>
       <c r="H20" s="13">
@@ -7386,7 +7386,7 @@
         <v>475</v>
       </c>
       <c r="G24" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C24</f>
+        <f>G168*C24</f>
         <v/>
       </c>
       <c r="H24" s="13">
@@ -7584,7 +7584,7 @@
         <v>135</v>
       </c>
       <c r="G26" s="10">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C26</f>
+        <f>G168*C26</f>
         <v/>
       </c>
       <c r="H26" s="11">
@@ -7665,7 +7665,7 @@
         <v>480</v>
       </c>
       <c r="G27" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C27</f>
+        <f>G168*C27</f>
         <v/>
       </c>
       <c r="H27" s="13">
@@ -7924,7 +7924,7 @@
         <v>470</v>
       </c>
       <c r="G29" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C29</f>
+        <f>G168*C29</f>
         <v/>
       </c>
       <c r="H29" s="13">
@@ -8334,7 +8334,7 @@
         <v>485</v>
       </c>
       <c r="G33" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C33</f>
+        <f>G168*C33</f>
         <v/>
       </c>
       <c r="H33" s="13">
@@ -8682,7 +8682,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="10">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C36</f>
+        <f>G168*C36</f>
         <v/>
       </c>
       <c r="H36" s="11">
@@ -8749,7 +8749,7 @@
         <v>470</v>
       </c>
       <c r="G37" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C37</f>
+        <f>G168*C37</f>
         <v/>
       </c>
       <c r="H37" s="13">
@@ -9051,7 +9051,7 @@
         <v>500</v>
       </c>
       <c r="G40" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C40</f>
+        <f>G168*C40</f>
         <v/>
       </c>
       <c r="H40" s="13">
@@ -9352,7 +9352,7 @@
         <v>240</v>
       </c>
       <c r="G43" s="10">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C43</f>
+        <f>G168*C43</f>
         <v/>
       </c>
       <c r="H43" s="11">
@@ -9447,7 +9447,7 @@
         <v>490</v>
       </c>
       <c r="G44" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C44</f>
+        <f>G168*C44</f>
         <v/>
       </c>
       <c r="H44" s="13">
@@ -9679,7 +9679,7 @@
         <v>475</v>
       </c>
       <c r="G46" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C46</f>
+        <f>G168*C46</f>
         <v/>
       </c>
       <c r="H46" s="13">
@@ -10104,7 +10104,7 @@
         <v>485</v>
       </c>
       <c r="G50" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C50</f>
+        <f>G168*C50</f>
         <v/>
       </c>
       <c r="H50" s="13">
@@ -10524,7 +10524,7 @@
         <v>480</v>
       </c>
       <c r="G54" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C54</f>
+        <f>G168*C54</f>
         <v/>
       </c>
       <c r="H54" s="13">
@@ -10843,7 +10843,7 @@
         <v>470</v>
       </c>
       <c r="G57" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C57</f>
+        <f>G168*C57</f>
         <v/>
       </c>
       <c r="H57" s="13">
@@ -11061,7 +11061,7 @@
         <v>480</v>
       </c>
       <c r="G59" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C59</f>
+        <f>G168*C59</f>
         <v/>
       </c>
       <c r="H59" s="13">
@@ -11517,7 +11517,7 @@
         <v>470</v>
       </c>
       <c r="G64" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C64</f>
+        <f>G168*C64</f>
         <v/>
       </c>
       <c r="H64" s="13">
@@ -11864,7 +11864,7 @@
         <v>470</v>
       </c>
       <c r="G68" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C68</f>
+        <f>G168*C68</f>
         <v/>
       </c>
       <c r="H68" s="13">
@@ -12105,7 +12105,7 @@
         <v>625</v>
       </c>
       <c r="G70" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C70</f>
+        <f>G168*C70</f>
         <v/>
       </c>
       <c r="H70" s="13">
@@ -12653,7 +12653,7 @@
         <v>470</v>
       </c>
       <c r="G76" s="10">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C76</f>
+        <f>G168*C76</f>
         <v/>
       </c>
       <c r="H76" s="11">
@@ -12805,7 +12805,7 @@
         <v>475</v>
       </c>
       <c r="G77" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C77</f>
+        <f>G168*C77</f>
         <v/>
       </c>
       <c r="H77" s="13">
@@ -12999,7 +12999,7 @@
         <v>470</v>
       </c>
       <c r="G79" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C79</f>
+        <f>G168*C79</f>
         <v/>
       </c>
       <c r="H79" s="13">
@@ -13286,7 +13286,7 @@
         <v>470</v>
       </c>
       <c r="G82" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C82</f>
+        <f>G168*C82</f>
         <v/>
       </c>
       <c r="H82" s="13">
@@ -13569,7 +13569,7 @@
         <v>470</v>
       </c>
       <c r="G85" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C85</f>
+        <f>G168*C85</f>
         <v/>
       </c>
       <c r="H85" s="13">
@@ -14020,7 +14020,7 @@
         <v>485</v>
       </c>
       <c r="G90" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C90</f>
+        <f>G168*C90</f>
         <v/>
       </c>
       <c r="H90" s="13">
@@ -14444,7 +14444,7 @@
         <v>480</v>
       </c>
       <c r="G94" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C94</f>
+        <f>G168*C94</f>
         <v/>
       </c>
       <c r="H94" s="13">
@@ -14638,7 +14638,7 @@
         <v>485</v>
       </c>
       <c r="G96" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C96</f>
+        <f>G168*C96</f>
         <v/>
       </c>
       <c r="H96" s="13">
@@ -14975,7 +14975,7 @@
         <v>255</v>
       </c>
       <c r="G99" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C99</f>
+        <f>G168*C99</f>
         <v/>
       </c>
       <c r="H99" s="13">
@@ -15254,7 +15254,7 @@
         <v>470</v>
       </c>
       <c r="G102" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C102</f>
+        <f>G168*C102</f>
         <v/>
       </c>
       <c r="H102" s="13">
@@ -15555,7 +15555,7 @@
         <v>470</v>
       </c>
       <c r="G105" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C105</f>
+        <f>G168*C105</f>
         <v/>
       </c>
       <c r="H105" s="13">
@@ -15839,7 +15839,7 @@
         <v>480</v>
       </c>
       <c r="G108" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C108</f>
+        <f>G168*C108</f>
         <v/>
       </c>
       <c r="H108" s="13">
@@ -16037,7 +16037,7 @@
         <v>495</v>
       </c>
       <c r="G110" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C110</f>
+        <f>G168*C110</f>
         <v/>
       </c>
       <c r="H110" s="13">
@@ -16244,7 +16244,7 @@
         <v>495</v>
       </c>
       <c r="G112" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C112</f>
+        <f>G168*C112</f>
         <v/>
       </c>
       <c r="H112" s="13">
@@ -16452,7 +16452,7 @@
         <v>495</v>
       </c>
       <c r="G114" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C114</f>
+        <f>G168*C114</f>
         <v/>
       </c>
       <c r="H114" s="13">
@@ -16665,7 +16665,7 @@
         <v>465</v>
       </c>
       <c r="G116" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C116</f>
+        <f>G168*C116</f>
         <v/>
       </c>
       <c r="H116" s="13">
@@ -16861,7 +16861,7 @@
         <v>470</v>
       </c>
       <c r="G118" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C118</f>
+        <f>G168*C118</f>
         <v/>
       </c>
       <c r="H118" s="13">
@@ -17074,7 +17074,7 @@
         <v>0</v>
       </c>
       <c r="G120" s="10">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C120</f>
+        <f>G168*C120</f>
         <v/>
       </c>
       <c r="H120" s="11">
@@ -17137,7 +17137,7 @@
         <v>135</v>
       </c>
       <c r="G121" s="10">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C121</f>
+        <f>G168*C121</f>
         <v/>
       </c>
       <c r="H121" s="11">
@@ -17214,7 +17214,7 @@
         <v>135</v>
       </c>
       <c r="G122" s="10">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C122</f>
+        <f>G168*C122</f>
         <v/>
       </c>
       <c r="H122" s="11">
@@ -17295,7 +17295,7 @@
         <v>465</v>
       </c>
       <c r="G123" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C123</f>
+        <f>G168*C123</f>
         <v/>
       </c>
       <c r="H123" s="13">
@@ -17496,7 +17496,7 @@
         <v>475</v>
       </c>
       <c r="G125" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C125</f>
+        <f>G168*C125</f>
         <v/>
       </c>
       <c r="H125" s="13">
@@ -17976,7 +17976,7 @@
         <v>465</v>
       </c>
       <c r="G130" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C130</f>
+        <f>G168*C130</f>
         <v/>
       </c>
       <c r="H130" s="13">
@@ -18173,7 +18173,7 @@
         <v>0</v>
       </c>
       <c r="G132" s="10">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C132</f>
+        <f>G168*C132</f>
         <v/>
       </c>
       <c r="H132" s="11">
@@ -18240,7 +18240,7 @@
         <v>485</v>
       </c>
       <c r="G133" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C133</f>
+        <f>G168*C133</f>
         <v/>
       </c>
       <c r="H133" s="13">
@@ -18471,7 +18471,7 @@
         <v>470</v>
       </c>
       <c r="G135" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C135</f>
+        <f>G168*C135</f>
         <v/>
       </c>
       <c r="H135" s="13">
@@ -18775,7 +18775,7 @@
         <v>465</v>
       </c>
       <c r="G138" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C138</f>
+        <f>G168*C138</f>
         <v/>
       </c>
       <c r="H138" s="13">
@@ -19127,7 +19127,7 @@
         <v>470</v>
       </c>
       <c r="G142" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C142</f>
+        <f>G168*C142</f>
         <v/>
       </c>
       <c r="H142" s="13">
@@ -19454,7 +19454,7 @@
         <v>495</v>
       </c>
       <c r="G145" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C145</f>
+        <f>G168*C145</f>
         <v/>
       </c>
       <c r="H145" s="13">
@@ -19858,7 +19858,7 @@
         <v>465</v>
       </c>
       <c r="G149" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C149</f>
+        <f>G168*C149</f>
         <v/>
       </c>
       <c r="H149" s="13">
@@ -20059,7 +20059,7 @@
         <v>490</v>
       </c>
       <c r="G151" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C151</f>
+        <f>G168*C151</f>
         <v/>
       </c>
       <c r="H151" s="13">
@@ -20336,7 +20336,7 @@
         <v>480</v>
       </c>
       <c r="G154" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C154</f>
+        <f>G168*C154</f>
         <v/>
       </c>
       <c r="H154" s="13">
@@ -20744,7 +20744,7 @@
         <v>470</v>
       </c>
       <c r="G158" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C158</f>
+        <f>G168*C158</f>
         <v/>
       </c>
       <c r="H158" s="13">
@@ -21041,7 +21041,7 @@
         <v>255</v>
       </c>
       <c r="G161" s="10">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C161</f>
+        <f>G168*C161</f>
         <v/>
       </c>
       <c r="H161" s="11">
@@ -21147,7 +21147,7 @@
         <v>255</v>
       </c>
       <c r="G162" s="10">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C162</f>
+        <f>G168*C162</f>
         <v/>
       </c>
       <c r="H162" s="11">
@@ -21254,7 +21254,7 @@
         <v>315</v>
       </c>
       <c r="G163" s="10">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C163</f>
+        <f>G168*C163</f>
         <v/>
       </c>
       <c r="H163" s="11">
@@ -21360,7 +21360,7 @@
         <v>385</v>
       </c>
       <c r="G164" s="12">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C164</f>
+        <f>G168*C164</f>
         <v/>
       </c>
       <c r="H164" s="13">
@@ -21525,7 +21525,7 @@
         <v>370</v>
       </c>
       <c r="G166" s="10">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C166</f>
+        <f>G168*C166</f>
         <v/>
       </c>
       <c r="H166" s="11">
@@ -21646,7 +21646,7 @@
         <v>345</v>
       </c>
       <c r="G167" s="10">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C167</f>
+        <f>G168*C167</f>
         <v/>
       </c>
       <c r="H167" s="11">
@@ -21734,7 +21734,7 @@
     </row>
     <row r="168">
       <c r="G168">
-        <f>((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167))*C168</f>
+        <f>ROUND((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167),0)</f>
         <v/>
       </c>
     </row>

--- a/監考時間表.xlsx
+++ b/監考時間表.xlsx
@@ -5268,7 +5268,7 @@
         <v>455</v>
       </c>
       <c r="G2" s="12">
-        <f>G168*C2</f>
+        <f>ROUND(G168*C2, 0)</f>
         <v/>
       </c>
       <c r="H2" s="13">
@@ -5745,7 +5745,7 @@
         <v>485</v>
       </c>
       <c r="G7" s="12">
-        <f>G168*C7</f>
+        <f>ROUND(G168*C7, 0)</f>
         <v/>
       </c>
       <c r="H7" s="13">
@@ -6092,7 +6092,7 @@
         <v>470</v>
       </c>
       <c r="G11" s="12">
-        <f>G168*C11</f>
+        <f>ROUND(G168*C11, 0)</f>
         <v/>
       </c>
       <c r="H11" s="13">
@@ -6373,7 +6373,7 @@
         <v>470</v>
       </c>
       <c r="G14" s="12">
-        <f>G168*C14</f>
+        <f>ROUND(G168*C14, 0)</f>
         <v/>
       </c>
       <c r="H14" s="13">
@@ -6585,7 +6585,7 @@
         <v>475</v>
       </c>
       <c r="G16" s="12">
-        <f>G168*C16</f>
+        <f>ROUND(G168*C16, 0)</f>
         <v/>
       </c>
       <c r="H16" s="13">
@@ -6782,7 +6782,7 @@
         <v>475</v>
       </c>
       <c r="G18" s="12">
-        <f>G168*C18</f>
+        <f>ROUND(G168*C18, 0)</f>
         <v/>
       </c>
       <c r="H18" s="13">
@@ -6976,7 +6976,7 @@
         <v>470</v>
       </c>
       <c r="G20" s="12">
-        <f>G168*C20</f>
+        <f>ROUND(G168*C20, 0)</f>
         <v/>
       </c>
       <c r="H20" s="13">
@@ -7386,7 +7386,7 @@
         <v>475</v>
       </c>
       <c r="G24" s="12">
-        <f>G168*C24</f>
+        <f>ROUND(G168*C24, 0)</f>
         <v/>
       </c>
       <c r="H24" s="13">
@@ -7584,7 +7584,7 @@
         <v>135</v>
       </c>
       <c r="G26" s="10">
-        <f>G168*C26</f>
+        <f>ROUND(G168*C26, 0)</f>
         <v/>
       </c>
       <c r="H26" s="11">
@@ -7665,7 +7665,7 @@
         <v>480</v>
       </c>
       <c r="G27" s="12">
-        <f>G168*C27</f>
+        <f>ROUND(G168*C27, 0)</f>
         <v/>
       </c>
       <c r="H27" s="13">
@@ -7924,7 +7924,7 @@
         <v>470</v>
       </c>
       <c r="G29" s="12">
-        <f>G168*C29</f>
+        <f>ROUND(G168*C29, 0)</f>
         <v/>
       </c>
       <c r="H29" s="13">
@@ -8334,7 +8334,7 @@
         <v>485</v>
       </c>
       <c r="G33" s="12">
-        <f>G168*C33</f>
+        <f>ROUND(G168*C33, 0)</f>
         <v/>
       </c>
       <c r="H33" s="13">
@@ -8682,7 +8682,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="10">
-        <f>G168*C36</f>
+        <f>ROUND(G168*C36, 0)</f>
         <v/>
       </c>
       <c r="H36" s="11">
@@ -8749,7 +8749,7 @@
         <v>470</v>
       </c>
       <c r="G37" s="12">
-        <f>G168*C37</f>
+        <f>ROUND(G168*C37, 0)</f>
         <v/>
       </c>
       <c r="H37" s="13">
@@ -9051,7 +9051,7 @@
         <v>500</v>
       </c>
       <c r="G40" s="12">
-        <f>G168*C40</f>
+        <f>ROUND(G168*C40, 0)</f>
         <v/>
       </c>
       <c r="H40" s="13">
@@ -9352,7 +9352,7 @@
         <v>240</v>
       </c>
       <c r="G43" s="10">
-        <f>G168*C43</f>
+        <f>ROUND(G168*C43, 0)</f>
         <v/>
       </c>
       <c r="H43" s="11">
@@ -9447,7 +9447,7 @@
         <v>490</v>
       </c>
       <c r="G44" s="12">
-        <f>G168*C44</f>
+        <f>ROUND(G168*C44, 0)</f>
         <v/>
       </c>
       <c r="H44" s="13">
@@ -9679,7 +9679,7 @@
         <v>475</v>
       </c>
       <c r="G46" s="12">
-        <f>G168*C46</f>
+        <f>ROUND(G168*C46, 0)</f>
         <v/>
       </c>
       <c r="H46" s="13">
@@ -10104,7 +10104,7 @@
         <v>485</v>
       </c>
       <c r="G50" s="12">
-        <f>G168*C50</f>
+        <f>ROUND(G168*C50, 0)</f>
         <v/>
       </c>
       <c r="H50" s="13">
@@ -10524,7 +10524,7 @@
         <v>480</v>
       </c>
       <c r="G54" s="12">
-        <f>G168*C54</f>
+        <f>ROUND(G168*C54, 0)</f>
         <v/>
       </c>
       <c r="H54" s="13">
@@ -10843,7 +10843,7 @@
         <v>470</v>
       </c>
       <c r="G57" s="12">
-        <f>G168*C57</f>
+        <f>ROUND(G168*C57, 0)</f>
         <v/>
       </c>
       <c r="H57" s="13">
@@ -11061,7 +11061,7 @@
         <v>480</v>
       </c>
       <c r="G59" s="12">
-        <f>G168*C59</f>
+        <f>ROUND(G168*C59, 0)</f>
         <v/>
       </c>
       <c r="H59" s="13">
@@ -11517,7 +11517,7 @@
         <v>470</v>
       </c>
       <c r="G64" s="12">
-        <f>G168*C64</f>
+        <f>ROUND(G168*C64, 0)</f>
         <v/>
       </c>
       <c r="H64" s="13">
@@ -11864,7 +11864,7 @@
         <v>470</v>
       </c>
       <c r="G68" s="12">
-        <f>G168*C68</f>
+        <f>ROUND(G168*C68, 0)</f>
         <v/>
       </c>
       <c r="H68" s="13">
@@ -12105,7 +12105,7 @@
         <v>625</v>
       </c>
       <c r="G70" s="12">
-        <f>G168*C70</f>
+        <f>ROUND(G168*C70, 0)</f>
         <v/>
       </c>
       <c r="H70" s="13">
@@ -12653,7 +12653,7 @@
         <v>470</v>
       </c>
       <c r="G76" s="10">
-        <f>G168*C76</f>
+        <f>ROUND(G168*C76, 0)</f>
         <v/>
       </c>
       <c r="H76" s="11">
@@ -12805,7 +12805,7 @@
         <v>475</v>
       </c>
       <c r="G77" s="12">
-        <f>G168*C77</f>
+        <f>ROUND(G168*C77, 0)</f>
         <v/>
       </c>
       <c r="H77" s="13">
@@ -12999,7 +12999,7 @@
         <v>470</v>
       </c>
       <c r="G79" s="12">
-        <f>G168*C79</f>
+        <f>ROUND(G168*C79, 0)</f>
         <v/>
       </c>
       <c r="H79" s="13">
@@ -13286,7 +13286,7 @@
         <v>470</v>
       </c>
       <c r="G82" s="12">
-        <f>G168*C82</f>
+        <f>ROUND(G168*C82, 0)</f>
         <v/>
       </c>
       <c r="H82" s="13">
@@ -13569,7 +13569,7 @@
         <v>470</v>
       </c>
       <c r="G85" s="12">
-        <f>G168*C85</f>
+        <f>ROUND(G168*C85, 0)</f>
         <v/>
       </c>
       <c r="H85" s="13">
@@ -14020,7 +14020,7 @@
         <v>485</v>
       </c>
       <c r="G90" s="12">
-        <f>G168*C90</f>
+        <f>ROUND(G168*C90, 0)</f>
         <v/>
       </c>
       <c r="H90" s="13">
@@ -14444,7 +14444,7 @@
         <v>480</v>
       </c>
       <c r="G94" s="12">
-        <f>G168*C94</f>
+        <f>ROUND(G168*C94, 0)</f>
         <v/>
       </c>
       <c r="H94" s="13">
@@ -14638,7 +14638,7 @@
         <v>485</v>
       </c>
       <c r="G96" s="12">
-        <f>G168*C96</f>
+        <f>ROUND(G168*C96, 0)</f>
         <v/>
       </c>
       <c r="H96" s="13">
@@ -14975,7 +14975,7 @@
         <v>255</v>
       </c>
       <c r="G99" s="12">
-        <f>G168*C99</f>
+        <f>ROUND(G168*C99, 0)</f>
         <v/>
       </c>
       <c r="H99" s="13">
@@ -15254,7 +15254,7 @@
         <v>470</v>
       </c>
       <c r="G102" s="12">
-        <f>G168*C102</f>
+        <f>ROUND(G168*C102, 0)</f>
         <v/>
       </c>
       <c r="H102" s="13">
@@ -15555,7 +15555,7 @@
         <v>470</v>
       </c>
       <c r="G105" s="12">
-        <f>G168*C105</f>
+        <f>ROUND(G168*C105, 0)</f>
         <v/>
       </c>
       <c r="H105" s="13">
@@ -15839,7 +15839,7 @@
         <v>480</v>
       </c>
       <c r="G108" s="12">
-        <f>G168*C108</f>
+        <f>ROUND(G168*C108, 0)</f>
         <v/>
       </c>
       <c r="H108" s="13">
@@ -16037,7 +16037,7 @@
         <v>495</v>
       </c>
       <c r="G110" s="12">
-        <f>G168*C110</f>
+        <f>ROUND(G168*C110, 0)</f>
         <v/>
       </c>
       <c r="H110" s="13">
@@ -16244,7 +16244,7 @@
         <v>495</v>
       </c>
       <c r="G112" s="12">
-        <f>G168*C112</f>
+        <f>ROUND(G168*C112, 0)</f>
         <v/>
       </c>
       <c r="H112" s="13">
@@ -16452,7 +16452,7 @@
         <v>495</v>
       </c>
       <c r="G114" s="12">
-        <f>G168*C114</f>
+        <f>ROUND(G168*C114, 0)</f>
         <v/>
       </c>
       <c r="H114" s="13">
@@ -16665,7 +16665,7 @@
         <v>465</v>
       </c>
       <c r="G116" s="12">
-        <f>G168*C116</f>
+        <f>ROUND(G168*C116, 0)</f>
         <v/>
       </c>
       <c r="H116" s="13">
@@ -16861,7 +16861,7 @@
         <v>470</v>
       </c>
       <c r="G118" s="12">
-        <f>G168*C118</f>
+        <f>ROUND(G168*C118, 0)</f>
         <v/>
       </c>
       <c r="H118" s="13">
@@ -17074,7 +17074,7 @@
         <v>0</v>
       </c>
       <c r="G120" s="10">
-        <f>G168*C120</f>
+        <f>ROUND(G168*C120, 0)</f>
         <v/>
       </c>
       <c r="H120" s="11">
@@ -17137,7 +17137,7 @@
         <v>135</v>
       </c>
       <c r="G121" s="10">
-        <f>G168*C121</f>
+        <f>ROUND(G168*C121, 0)</f>
         <v/>
       </c>
       <c r="H121" s="11">
@@ -17214,7 +17214,7 @@
         <v>135</v>
       </c>
       <c r="G122" s="10">
-        <f>G168*C122</f>
+        <f>ROUND(G168*C122, 0)</f>
         <v/>
       </c>
       <c r="H122" s="11">
@@ -17295,7 +17295,7 @@
         <v>465</v>
       </c>
       <c r="G123" s="12">
-        <f>G168*C123</f>
+        <f>ROUND(G168*C123, 0)</f>
         <v/>
       </c>
       <c r="H123" s="13">
@@ -17496,7 +17496,7 @@
         <v>475</v>
       </c>
       <c r="G125" s="12">
-        <f>G168*C125</f>
+        <f>ROUND(G168*C125, 0)</f>
         <v/>
       </c>
       <c r="H125" s="13">
@@ -17976,7 +17976,7 @@
         <v>465</v>
       </c>
       <c r="G130" s="12">
-        <f>G168*C130</f>
+        <f>ROUND(G168*C130, 0)</f>
         <v/>
       </c>
       <c r="H130" s="13">
@@ -18173,7 +18173,7 @@
         <v>0</v>
       </c>
       <c r="G132" s="10">
-        <f>G168*C132</f>
+        <f>ROUND(G168*C132, 0)</f>
         <v/>
       </c>
       <c r="H132" s="11">
@@ -18240,7 +18240,7 @@
         <v>485</v>
       </c>
       <c r="G133" s="12">
-        <f>G168*C133</f>
+        <f>ROUND(G168*C133, 0)</f>
         <v/>
       </c>
       <c r="H133" s="13">
@@ -18471,7 +18471,7 @@
         <v>470</v>
       </c>
       <c r="G135" s="12">
-        <f>G168*C135</f>
+        <f>ROUND(G168*C135, 0)</f>
         <v/>
       </c>
       <c r="H135" s="13">
@@ -18775,7 +18775,7 @@
         <v>465</v>
       </c>
       <c r="G138" s="12">
-        <f>G168*C138</f>
+        <f>ROUND(G168*C138, 0)</f>
         <v/>
       </c>
       <c r="H138" s="13">
@@ -19127,7 +19127,7 @@
         <v>470</v>
       </c>
       <c r="G142" s="12">
-        <f>G168*C142</f>
+        <f>ROUND(G168*C142, 0)</f>
         <v/>
       </c>
       <c r="H142" s="13">
@@ -19454,7 +19454,7 @@
         <v>495</v>
       </c>
       <c r="G145" s="12">
-        <f>G168*C145</f>
+        <f>ROUND(G168*C145, 0)</f>
         <v/>
       </c>
       <c r="H145" s="13">
@@ -19858,7 +19858,7 @@
         <v>465</v>
       </c>
       <c r="G149" s="12">
-        <f>G168*C149</f>
+        <f>ROUND(G168*C149, 0)</f>
         <v/>
       </c>
       <c r="H149" s="13">
@@ -20059,7 +20059,7 @@
         <v>490</v>
       </c>
       <c r="G151" s="12">
-        <f>G168*C151</f>
+        <f>ROUND(G168*C151, 0)</f>
         <v/>
       </c>
       <c r="H151" s="13">
@@ -20336,7 +20336,7 @@
         <v>480</v>
       </c>
       <c r="G154" s="12">
-        <f>G168*C154</f>
+        <f>ROUND(G168*C154, 0)</f>
         <v/>
       </c>
       <c r="H154" s="13">
@@ -20744,7 +20744,7 @@
         <v>470</v>
       </c>
       <c r="G158" s="12">
-        <f>G168*C158</f>
+        <f>ROUND(G168*C158, 0)</f>
         <v/>
       </c>
       <c r="H158" s="13">
@@ -21041,7 +21041,7 @@
         <v>255</v>
       </c>
       <c r="G161" s="10">
-        <f>G168*C161</f>
+        <f>ROUND(G168*C161, 0)</f>
         <v/>
       </c>
       <c r="H161" s="11">
@@ -21147,7 +21147,7 @@
         <v>255</v>
       </c>
       <c r="G162" s="10">
-        <f>G168*C162</f>
+        <f>ROUND(G168*C162, 0)</f>
         <v/>
       </c>
       <c r="H162" s="11">
@@ -21254,7 +21254,7 @@
         <v>315</v>
       </c>
       <c r="G163" s="10">
-        <f>G168*C163</f>
+        <f>ROUND(G168*C163, 0)</f>
         <v/>
       </c>
       <c r="H163" s="11">
@@ -21360,7 +21360,7 @@
         <v>385</v>
       </c>
       <c r="G164" s="12">
-        <f>G168*C164</f>
+        <f>ROUND(G168*C164, 0)</f>
         <v/>
       </c>
       <c r="H164" s="13">
@@ -21525,7 +21525,7 @@
         <v>370</v>
       </c>
       <c r="G166" s="10">
-        <f>G168*C166</f>
+        <f>ROUND(G168*C166, 0)</f>
         <v/>
       </c>
       <c r="H166" s="11">
@@ -21646,7 +21646,7 @@
         <v>345</v>
       </c>
       <c r="G167" s="10">
-        <f>G168*C167</f>
+        <f>ROUND(G168*C167, 0)</f>
         <v/>
       </c>
       <c r="H167" s="11">
@@ -21733,8 +21733,24 @@
       </c>
     </row>
     <row r="168">
+      <c r="C168">
+        <f t="array" ref="C168">SUM(C2:C167)</f>
+        <v/>
+      </c>
+      <c r="D168">
+        <f t="array" ref="D168">SUM(D2:D167)</f>
+        <v/>
+      </c>
+      <c r="E168">
+        <f t="array" ref="E168">SUM(E2:E167)</f>
+        <v/>
+      </c>
+      <c r="F168">
+        <f t="array" ref="F168">SUM(F2:F167)</f>
+        <v/>
+      </c>
       <c r="G168">
-        <f>ROUND((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167),0)</f>
+        <f t="array" ref="G168">ROUND((SUM($D$2:$D$167*$C$2:$C$167)-F161-F162-F163-F164+SUM($E$2:$E$167))/SUM($C$2:$C$167),0)</f>
         <v/>
       </c>
     </row>
